--- a/validation/!Итоговый_сравнение_OFR.xlsx
+++ b/validation/!Итоговый_сравнение_OFR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\other files\Никитины работы\Honors Track\!!!!! NEURAL NETWORK\WF OPTIMIZER\public\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C23426-9EEE-47BE-9A5A-560ECDC0B484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4558EDF-F23E-42DE-8172-C26297A9A14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="26208" windowHeight="12912" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9684" yWindow="2484" windowWidth="25092" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="101" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
     <t>kH1</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>OFR_JOIN</t>
+  </si>
+  <si>
+    <t>Normalize</t>
+  </si>
+  <si>
+    <t>normalize</t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AI21"/>
+  <dimension ref="B1:AL21"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK20" sqref="AK20"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK26" sqref="AK26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,7 +493,7 @@
     <col min="34" max="35" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:38" x14ac:dyDescent="0.3">
       <c r="V1" t="s">
         <v>20</v>
       </c>
@@ -503,8 +509,11 @@
       <c r="AH1" t="s">
         <v>25</v>
       </c>
+      <c r="AK1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,8 +604,14 @@
       <c r="AI2" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="AK2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>7561.426453529808</v>
       </c>
@@ -689,8 +704,15 @@
         <f>AH3/SUM($AH$3:$AH$20)</f>
         <v>3.9359284432157547E-2</v>
       </c>
+      <c r="AK3">
+        <v>4.424325377936246E-2</v>
+      </c>
+      <c r="AL3">
+        <f>AK3/SUM($AK$3:$AK$20)</f>
+        <v>4.6221702378931202E-2</v>
+      </c>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>14980.533396498649</v>
       </c>
@@ -783,8 +805,15 @@
         <f t="shared" ref="AI4:AI20" si="4">AH4/SUM($AH$3:$AH$20)</f>
         <v>5.9924178281080313E-2</v>
       </c>
+      <c r="AK4">
+        <v>5.6559849683830321E-2</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" ref="AL4:AL20" si="5">AK4/SUM($AK$3:$AK$20)</f>
+        <v>5.9089065910937683E-2</v>
+      </c>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>9007.1577770356616</v>
       </c>
@@ -877,8 +906,15 @@
         <f t="shared" si="4"/>
         <v>4.0751432424532545E-2</v>
       </c>
+      <c r="AK5">
+        <v>4.5750814591057253E-2</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="5"/>
+        <v>4.7796677571845254E-2</v>
+      </c>
     </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>9716.4939836133599</v>
       </c>
@@ -971,8 +1007,15 @@
         <f t="shared" si="4"/>
         <v>5.4169351589008943E-2</v>
       </c>
+      <c r="AK6">
+        <v>6.392132648030012E-2</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="5"/>
+        <v>6.6779729695583448E-2</v>
+      </c>
     </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>10272.530019776859</v>
       </c>
@@ -1065,8 +1108,15 @@
         <f t="shared" si="4"/>
         <v>5.6076283967445371E-2</v>
       </c>
+      <c r="AK7">
+        <v>5.5100665025791092E-2</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="5"/>
+        <v>5.7564630133312929E-2</v>
+      </c>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>15994.251950235021</v>
       </c>
@@ -1159,8 +1209,15 @@
         <f t="shared" si="4"/>
         <v>5.9576812525514458E-2</v>
       </c>
+      <c r="AK8">
+        <v>5.3874361356641837E-2</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="5"/>
+        <v>5.6283489204929225E-2</v>
+      </c>
     </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5696.4493846033547</v>
       </c>
@@ -1253,8 +1310,15 @@
         <f t="shared" si="4"/>
         <v>4.5151364830883695E-2</v>
       </c>
+      <c r="AK9">
+        <v>4.9994155691524822E-2</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="5"/>
+        <v>5.2229770364165755E-2</v>
+      </c>
     </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8623.4681231407285</v>
       </c>
@@ -1347,8 +1411,15 @@
         <f t="shared" si="4"/>
         <v>4.983002202077641E-2</v>
       </c>
+      <c r="AK10">
+        <v>4.1086095598272608E-2</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="5"/>
+        <v>4.2923363912748765E-2</v>
+      </c>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>6217.8269317168406</v>
       </c>
@@ -1441,8 +1512,15 @@
         <f t="shared" si="4"/>
         <v>6.3848197060942274E-2</v>
       </c>
+      <c r="AK11">
+        <v>4.3873794649291989E-2</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="5"/>
+        <v>4.5835721952707173E-2</v>
+      </c>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9309.7083001028204</v>
       </c>
@@ -1535,8 +1613,15 @@
         <f t="shared" si="4"/>
         <v>5.8827188669647104E-2</v>
       </c>
+      <c r="AK12">
+        <v>6.4660442805751173E-2</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="5"/>
+        <v>6.7551897470331149E-2</v>
+      </c>
     </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>13226.61411238149</v>
       </c>
@@ -1629,8 +1714,15 @@
         <f t="shared" si="4"/>
         <v>6.3625906578489308E-2</v>
       </c>
+      <c r="AK13">
+        <v>5.5460109638688533E-2</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="5"/>
+        <v>5.7940148217988825E-2</v>
+      </c>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>12081.87880459281</v>
       </c>
@@ -1723,8 +1815,15 @@
         <f t="shared" si="4"/>
         <v>5.9285236643983011E-2</v>
       </c>
+      <c r="AK14">
+        <v>5.4259979281955861E-2</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="5"/>
+        <v>5.6686351007651341E-2</v>
+      </c>
     </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>7959.7565806156999</v>
       </c>
@@ -1817,8 +1916,15 @@
         <f t="shared" si="4"/>
         <v>3.9906055391168441E-2</v>
       </c>
+      <c r="AK15">
+        <v>3.9992735396495588E-2</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="5"/>
+        <v>4.1781111353939922E-2</v>
+      </c>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>12522.72341123687</v>
       </c>
@@ -1911,8 +2017,15 @@
         <f t="shared" si="4"/>
         <v>7.2746109950818941E-2</v>
       </c>
+      <c r="AK16">
+        <v>6.5682350068924228E-2</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="5"/>
+        <v>6.861950189230262E-2</v>
+      </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>11681.695669252411</v>
       </c>
@@ -2005,8 +2118,15 @@
         <f t="shared" si="4"/>
         <v>6.1805705441301317E-2</v>
       </c>
+      <c r="AK17">
+        <v>5.842331532777869E-2</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="5"/>
+        <v>6.1035861117670918E-2</v>
+      </c>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>6674.0417014122386</v>
       </c>
@@ -2099,8 +2219,15 @@
         <f t="shared" si="4"/>
         <v>6.0791153039694706E-2</v>
       </c>
+      <c r="AK18">
+        <v>5.3624061702115283E-2</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="5"/>
+        <v>5.6021996770517175E-2</v>
+      </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>8537.891761465582</v>
       </c>
@@ -2193,8 +2320,15 @@
         <f t="shared" si="4"/>
         <v>5.7618714329756682E-2</v>
       </c>
+      <c r="AK19">
+        <v>5.0857068907680068E-2</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="5"/>
+        <v>5.3131270919592327E-2</v>
+      </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>10367.04167422188</v>
       </c>
@@ -2287,8 +2421,15 @@
         <f t="shared" si="4"/>
         <v>5.6707002822798995E-2</v>
       </c>
+      <c r="AK20">
+        <v>5.9832164110876697E-2</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="5"/>
+        <v>6.2507710124844323E-2</v>
+      </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.3">
       <c r="V21">
         <f>SUM(V3:V20)</f>
         <v>0.88652112859160959</v>
@@ -2319,6 +2460,14 @@
       </c>
       <c r="AI21">
         <f>SUM(AI3:AI20)</f>
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <f>SUM(AK3:AK20)</f>
+        <v>0.95719654409633859</v>
+      </c>
+      <c r="AL21">
+        <f>SUM(AL3:AL20)</f>
         <v>1</v>
       </c>
     </row>
@@ -2329,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA690E7-8E39-45A8-B790-E8D4E725D85E}">
-  <dimension ref="B1:AI23"/>
+  <dimension ref="B1:AK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI36" sqref="AI36"/>
+    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK24" sqref="AK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2342,7 +2491,7 @@
     <col min="32" max="32" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:37" x14ac:dyDescent="0.3">
       <c r="V1" t="s">
         <v>20</v>
       </c>
@@ -2358,8 +2507,11 @@
       <c r="AH1" t="s">
         <v>25</v>
       </c>
+      <c r="AK1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2449,8 +2601,11 @@
       <c r="AI2" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="AK2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>8301.9947520803034</v>
       </c>
@@ -2543,8 +2698,11 @@
         <f>AH3/SUM($AH$3:$AH$22)</f>
         <v>3.8496627813980389E-2</v>
       </c>
+      <c r="AK3">
+        <v>3.9279750081232342E-2</v>
+      </c>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>5520.1626600550007</v>
       </c>
@@ -2637,8 +2795,11 @@
         <f t="shared" ref="AI4:AI22" si="4">AH4/SUM($AH$3:$AH$22)</f>
         <v>4.4772479614416071E-2</v>
       </c>
+      <c r="AK4">
+        <v>4.7489581679278421E-2</v>
+      </c>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>14034.40182937672</v>
       </c>
@@ -2731,8 +2892,11 @@
         <f t="shared" si="4"/>
         <v>6.5910233262315293E-2</v>
       </c>
+      <c r="AK5">
+        <v>6.3247256401157123E-2</v>
+      </c>
     </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>9052.6790198246254</v>
       </c>
@@ -2825,8 +2989,11 @@
         <f t="shared" si="4"/>
         <v>4.7992852727436558E-2</v>
       </c>
+      <c r="AK6">
+        <v>4.1043204845225577E-2</v>
+      </c>
     </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>15780.11581025447</v>
       </c>
@@ -2919,8 +3086,11 @@
         <f t="shared" si="4"/>
         <v>5.5079936683979772E-2</v>
       </c>
+      <c r="AK7">
+        <v>5.5994189335281538E-2</v>
+      </c>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>18209.94735859313</v>
       </c>
@@ -3013,8 +3183,11 @@
         <f t="shared" si="4"/>
         <v>6.6217387619690121E-2</v>
       </c>
+      <c r="AK8">
+        <v>7.1500489219604751E-2</v>
+      </c>
     </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7633.4360627198103</v>
       </c>
@@ -3107,8 +3280,11 @@
         <f t="shared" si="4"/>
         <v>3.8479097174604314E-2</v>
       </c>
+      <c r="AK9">
+        <v>4.1008323690920313E-2</v>
+      </c>
     </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>14635.0331128904</v>
       </c>
@@ -3201,8 +3377,11 @@
         <f t="shared" si="4"/>
         <v>5.0588009383548252E-2</v>
       </c>
+      <c r="AK10">
+        <v>4.1397951065625917E-2</v>
+      </c>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>12356.473482006881</v>
       </c>
@@ -3295,8 +3474,11 @@
         <f t="shared" si="4"/>
         <v>5.1737777404714733E-2</v>
       </c>
+      <c r="AK11">
+        <v>5.2630713192797857E-2</v>
+      </c>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10333.81336676198</v>
       </c>
@@ -3389,8 +3571,11 @@
         <f t="shared" si="4"/>
         <v>5.3877946886893617E-2</v>
       </c>
+      <c r="AK12">
+        <v>4.6564839461884701E-2</v>
+      </c>
     </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>6066.6705186615836</v>
       </c>
@@ -3483,8 +3668,11 @@
         <f t="shared" si="4"/>
         <v>5.2349974277415612E-2</v>
       </c>
+      <c r="AK13">
+        <v>3.9890610137046929E-2</v>
+      </c>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>8461.2573543215349</v>
       </c>
@@ -3577,8 +3765,11 @@
         <f t="shared" si="4"/>
         <v>4.5620165691393579E-2</v>
       </c>
+      <c r="AK14">
+        <v>3.9438445019595939E-2</v>
+      </c>
     </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>9440.6303438670693</v>
       </c>
@@ -3671,8 +3862,11 @@
         <f t="shared" si="4"/>
         <v>5.1524106685741082E-2</v>
       </c>
+      <c r="AK15">
+        <v>5.2116149144733143E-2</v>
+      </c>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>5606.7318534000005</v>
       </c>
@@ -3765,8 +3959,11 @@
         <f t="shared" si="4"/>
         <v>4.4020232788822729E-2</v>
       </c>
+      <c r="AK16">
+        <v>4.6933731695011957E-2</v>
+      </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>9681.7863800383111</v>
       </c>
@@ -3859,8 +4056,11 @@
         <f t="shared" si="4"/>
         <v>5.0672467033975627E-2</v>
       </c>
+      <c r="AK17">
+        <v>5.4050900737565591E-2</v>
+      </c>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>9886.9765750981205</v>
       </c>
@@ -3953,8 +4153,11 @@
         <f t="shared" si="4"/>
         <v>5.2743363937474634E-2</v>
       </c>
+      <c r="AK18">
+        <v>5.9764629852523198E-2</v>
+      </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>8987.7275891084755</v>
       </c>
@@ -4047,8 +4250,11 @@
         <f t="shared" si="4"/>
         <v>5.2230424820394493E-2</v>
       </c>
+      <c r="AK19">
+        <v>5.4243503240082633E-2</v>
+      </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>10198.601107869419</v>
       </c>
@@ -4141,8 +4347,11 @@
         <f t="shared" si="4"/>
         <v>4.3323849250744485E-2</v>
       </c>
+      <c r="AK20">
+        <v>5.151212007922152E-2</v>
+      </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>8518.030175199925</v>
       </c>
@@ -4235,8 +4444,11 @@
         <f t="shared" si="4"/>
         <v>5.208233963743536E-2</v>
       </c>
+      <c r="AK21">
+        <v>5.0548168441779659E-2</v>
+      </c>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>9137.2544595758118</v>
       </c>
@@ -4329,8 +4541,11 @@
         <f t="shared" si="4"/>
         <v>4.2280727305023282E-2</v>
       </c>
+      <c r="AK22">
+        <v>5.3458703168948893E-2</v>
+      </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:37" x14ac:dyDescent="0.3">
       <c r="V23">
         <f>SUM(V3:V22)</f>
         <v>0.98422957955640833</v>
@@ -4362,6 +4577,10 @@
       <c r="AI23">
         <f>SUM(AI3:AI22)</f>
         <v>1</v>
+      </c>
+      <c r="AK23">
+        <f>SUM(AK3:AK22)</f>
+        <v>1.0021132604895182</v>
       </c>
     </row>
   </sheetData>
